--- a/test_data/selenium.xlsx
+++ b/test_data/selenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\146698\PycharmProjects\hybrid_framework_web\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Training\Capstone P1\Caption P1\Caption-P1\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E0986-A656-4AEC-A272-3A03869DAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16820ACD-B949-459D-B43E-D0B745AFDC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A79E87A-789E-41D7-A086-9F6C8181D4EB}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5A79E87A-789E-41D7-A086-9F6C8181D4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="test_add_valid_employee" sheetId="1" r:id="rId1"/>
@@ -45,24 +45,12 @@
     <t>User Email</t>
   </si>
   <si>
-    <t>padmakshi123</t>
-  </si>
-  <si>
-    <t>princy@jain.com</t>
-  </si>
-  <si>
-    <t>Ken kevin</t>
-  </si>
-  <si>
     <t>Full name</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>kevin@gmai.com</t>
-  </si>
-  <si>
     <t>Engineer</t>
   </si>
   <si>
@@ -79,6 +67,18 @@
   </si>
   <si>
     <t>upload number</t>
+  </si>
+  <si>
+    <t>bot123</t>
+  </si>
+  <si>
+    <t>rohit@beheraemail.com</t>
+  </si>
+  <si>
+    <t>Bot Rohit</t>
+  </si>
+  <si>
+    <t>bot@behera.com</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419FB530-A960-439D-9979-252914B53F6F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,37 +461,33 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5957F836-304D-4BF3-B62B-5AAD57D56039}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{B5C1FECC-E44D-4C52-8460-87412C755361}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -500,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E36066-89A7-46D9-A33F-045D5125FA9F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,36 +510,33 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5566</v>
+        <v>91767</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A28BA274-868D-4ADE-A7DA-69DEA7C6F583}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>